--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/Shuakhevi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/Shuakhevi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>─</t>
   </si>
   <si>
-    <t>Public and Private General Education Schools in Shuakhevi</t>
-  </si>
-  <si>
     <t>(At the beginning of the school year)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   <si>
     <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
 </t>
+  </si>
+  <si>
+    <t>Public and Private General Education Schools in Shuakhevi municipality</t>
   </si>
 </sst>
 </file>
@@ -253,11 +253,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,9 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,38 +553,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -634,7 +632,7 @@
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9">
         <v>44</v>
@@ -675,7 +673,7 @@
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="10">
         <v>3446</v>
@@ -716,7 +714,7 @@
     </row>
     <row r="6" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -757,7 +755,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -774,7 +772,7 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -940,11 +938,10 @@
       <c r="M18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/Shuakhevi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/Shuakhevi.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C9C851-303D-4482-A318-0750BE70829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA50A1-B574-44C3-9CBC-836BE95B79B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shuakhevi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Public and Private General Education Schools in Shuakhevi municipality</t>
   </si>
@@ -129,7 +129,24 @@
     <t>number of graduates of the basic level (persons)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -140,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +228,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +345,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -323,7 +355,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +639,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="18" width="12" customWidth="1"/>
+    <col min="2" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="51" customHeight="1">
@@ -628,21 +661,21 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -693,6 +726,9 @@
       <c r="O3" s="18" t="s">
         <v>15</v>
       </c>
+      <c r="P3" s="18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -740,6 +776,9 @@
       <c r="O4" s="11">
         <v>44</v>
       </c>
+      <c r="P4" s="12">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -787,13 +826,16 @@
       <c r="O5" s="12">
         <v>1366</v>
       </c>
+      <c r="P5" s="12">
+        <v>1263</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="26.25">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="12">
         <v>258</v>
@@ -831,8 +873,11 @@
       <c r="N6" s="12">
         <v>110</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>29</v>
+      <c r="O6" s="12">
+        <v>101</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1">
@@ -840,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12">
         <v>112</v>
@@ -878,8 +923,11 @@
       <c r="N7" s="12">
         <v>52</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>29</v>
+      <c r="O7" s="12">
+        <v>43</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1">
@@ -887,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12">
         <v>146</v>
@@ -925,8 +973,11 @@
       <c r="N8" s="12">
         <v>58</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>29</v>
+      <c r="O8" s="12">
+        <v>58</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="26.25">
@@ -934,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12">
         <v>312</v>
@@ -972,8 +1023,11 @@
       <c r="N9" s="12">
         <v>97</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>29</v>
+      <c r="O9" s="12">
+        <v>101</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1">
@@ -981,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="12">
         <v>154</v>
@@ -1019,8 +1073,11 @@
       <c r="N10" s="12">
         <v>40</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>29</v>
+      <c r="O10" s="12">
+        <v>53</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1">
@@ -1028,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12">
         <v>158</v>
@@ -1066,8 +1123,11 @@
       <c r="N11" s="12">
         <v>57</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>29</v>
+      <c r="O11" s="12">
+        <v>48</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="26.25">
@@ -1075,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="12">
         <v>390</v>
@@ -1113,8 +1173,11 @@
       <c r="N12" s="12">
         <v>157</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>29</v>
+      <c r="O12" s="12">
+        <v>132</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1">
@@ -1122,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="12">
         <v>196</v>
@@ -1160,8 +1223,11 @@
       <c r="N13" s="12">
         <v>69</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>29</v>
+      <c r="O13" s="12">
+        <v>67</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1">
@@ -1169,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="12">
         <v>194</v>
@@ -1207,8 +1273,11 @@
       <c r="N14" s="12">
         <v>88</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>29</v>
+      <c r="O14" s="12">
+        <v>65</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="26.25">
@@ -1216,46 +1285,49 @@
         <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="22">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19">
         <v>24.707000316756414</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>25.40192926045016</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>18.001565353509001</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="19">
         <v>20.918300223654786</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="19">
         <v>20.711717951254908</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>16.789503255445023</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>14.221928228873823</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="19">
         <v>11.71525962206705</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="19">
         <v>10.48405825951362</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="19">
         <v>10.341951626355296</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="19">
         <v>11.822395378518172</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="19">
         <v>10.611334527390087</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>29</v>
+      <c r="O15" s="23">
+        <v>10.718186783178593</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1">
@@ -1263,22 +1335,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="12">
         <v>842</v>
@@ -1304,28 +1376,31 @@
       <c r="O16" s="13">
         <v>684</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="P16" s="13">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="12">
         <v>486</v>
@@ -1351,28 +1426,31 @@
       <c r="O17" s="13">
         <v>409</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="P17" s="13">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="15">
         <v>356</v>
@@ -1398,13 +1476,16 @@
       <c r="O18" s="14">
         <v>275</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="20" t="s">
+      <c r="P18" s="14">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1416,14 +1497,14 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1433,8 +1514,10 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1448,7 +1531,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1463,7 +1546,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1478,7 +1561,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1493,7 +1576,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1508,7 +1591,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1523,7 +1606,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1538,7 +1621,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1553,7 +1636,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1568,7 +1651,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
